--- a/Configurations/TestCases.xlsx
+++ b/Configurations/TestCases.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B05E0A-A9FF-41CB-87B5-F2B885D75F75}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E7C9A98-65F2-419A-BC5C-CEF2C01C9A6D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -49,7 +49,43 @@
     <t>QRowNew</t>
   </si>
   <si>
+    <t>Testing with Policy Number</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
     <t>y</t>
+  </si>
+  <si>
+    <t>Policy_Number</t>
+  </si>
+  <si>
+    <t>Max Folders</t>
+  </si>
+  <si>
+    <t>Claim_Number</t>
+  </si>
+  <si>
+    <t>Testing with Claim Number</t>
+  </si>
+  <si>
+    <t>Testing with ContactAttorney Number</t>
+  </si>
+  <si>
+    <t>ContactAttorney_Number</t>
+  </si>
+  <si>
+    <t>Testing with ContactIndAdjuster Number</t>
+  </si>
+  <si>
+    <t>ContactIndAdjuster_Number</t>
+  </si>
+  <si>
+    <t>Testing with ContactVendor Number</t>
+  </si>
+  <si>
+    <t>ContactVendor_Number</t>
   </si>
 </sst>
 </file>
@@ -100,9 +136,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -383,21 +421,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.54296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.453125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -413,13 +452,16 @@
       <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -430,13 +472,16 @@
       <c r="E2" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F2" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>6</v>
@@ -447,6 +492,101 @@
       <c r="E3" s="1">
         <v>4</v>
       </c>
+      <c r="F3" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1">
+        <v>5</v>
+      </c>
+      <c r="E4" s="1">
+        <v>6</v>
+      </c>
+      <c r="F4" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1">
+        <v>7</v>
+      </c>
+      <c r="E5" s="1">
+        <v>8</v>
+      </c>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1">
+        <v>9</v>
+      </c>
+      <c r="E6" s="1">
+        <v>10</v>
+      </c>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="1">
+        <v>11</v>
+      </c>
+      <c r="E7" s="1">
+        <v>12</v>
+      </c>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="1">
+        <v>13</v>
+      </c>
+      <c r="E8" s="1">
+        <v>14</v>
+      </c>
+      <c r="F8" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
